--- a/NformTester/NformTester/Keywordscripts/600.20.30.40_ConfigureShutDownAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.40_ConfigureShutDownAction.xlsx
@@ -1205,7 +1205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7449" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7461" uniqueCount="860">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4129,7 +4129,21 @@
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4882,10 +4896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5093,7 +5107,7 @@
         <v>748</v>
       </c>
       <c r="B7" s="12">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -6970,14 +6984,12 @@
         <v>300</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>303</v>
+        <v>95</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>853</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" s="4"/>
       <c r="I80" s="18"/>
       <c r="J80" s="18"/>
       <c r="K80" s="18"/>
@@ -6994,16 +7006,16 @@
         <v>785</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>300</v>
+        <v>19</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="G81" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
       <c r="J81" s="18"/>
       <c r="K81" s="18"/>
       <c r="L81" s="18"/>
@@ -7019,37 +7031,42 @@
         <v>785</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>859</v>
+        <v>19</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="G82" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
+      <c r="I82" s="4"/>
       <c r="J82" s="18"/>
       <c r="K82" s="18"/>
       <c r="L82" s="18"/>
       <c r="M82" s="18"/>
       <c r="N82" s="20"/>
+      <c r="O82" s="27"/>
     </row>
     <row r="83" spans="3:15">
       <c r="C83" s="2">
         <v>82</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>857</v>
+        <v>785</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="F83" s="18">
-        <v>5</v>
-      </c>
-      <c r="G83" s="18"/>
-      <c r="H83" s="4"/>
+        <v>300</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>853</v>
+      </c>
       <c r="I83" s="18"/>
       <c r="J83" s="18"/>
       <c r="K83" s="18"/>
@@ -7069,7 +7086,7 @@
         <v>300</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="G84" s="18" t="s">
         <v>2</v>
@@ -7083,16 +7100,22 @@
       <c r="N84" s="20"/>
       <c r="O84" s="27"/>
     </row>
-    <row r="85" spans="3:15" ht="15">
+    <row r="85" spans="3:15">
       <c r="C85" s="2">
         <v>84</v>
       </c>
-      <c r="D85" s="19" t="s">
-        <v>827</v>
-      </c>
-      <c r="E85" s="4"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
+      <c r="D85" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="H85" s="18"/>
       <c r="I85" s="18"/>
       <c r="J85" s="18"/>
@@ -7106,22 +7129,23 @@
         <v>85</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>828</v>
+        <v>857</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>829</v>
+        <v>858</v>
       </c>
       <c r="F86" s="18">
         <v>5</v>
       </c>
       <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
+      <c r="H86" s="4"/>
       <c r="I86" s="18"/>
       <c r="J86" s="18"/>
       <c r="K86" s="18"/>
       <c r="L86" s="18"/>
       <c r="M86" s="18"/>
       <c r="N86" s="20"/>
+      <c r="O86" s="27"/>
     </row>
     <row r="87" spans="3:15">
       <c r="C87" s="2">
@@ -7131,40 +7155,35 @@
         <v>785</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G87" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
       <c r="J87" s="18"/>
       <c r="K87" s="18"/>
       <c r="L87" s="18"/>
       <c r="M87" s="18"/>
       <c r="N87" s="20"/>
+      <c r="O87" s="27"/>
     </row>
-    <row r="88" spans="3:15">
+    <row r="88" spans="3:15" ht="15">
       <c r="C88" s="2">
         <v>87</v>
       </c>
-      <c r="D88" s="21" t="s">
-        <v>830</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F88" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G88" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
+      <c r="D88" s="19" t="s">
+        <v>827</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
       <c r="J88" s="18"/>
       <c r="K88" s="18"/>
       <c r="L88" s="18"/>
@@ -7176,20 +7195,16 @@
         <v>88</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>831</v>
-      </c>
-      <c r="F89" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="G89" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="18" t="s">
-        <v>818</v>
-      </c>
+        <v>829</v>
+      </c>
+      <c r="F89" s="18">
+        <v>5</v>
+      </c>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
       <c r="I89" s="18"/>
       <c r="J89" s="18"/>
       <c r="K89" s="18"/>
@@ -7197,24 +7212,24 @@
       <c r="M89" s="18"/>
       <c r="N89" s="20"/>
     </row>
-    <row r="90" spans="3:15" ht="14.25">
+    <row r="90" spans="3:15">
       <c r="C90" s="2">
         <v>89</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>830</v>
+        <v>785</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>831</v>
+        <v>19</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="G90" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H90" s="23"/>
-      <c r="I90" s="18"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
       <c r="J90" s="18"/>
       <c r="K90" s="18"/>
       <c r="L90" s="18"/>
@@ -7228,17 +7243,17 @@
       <c r="D91" s="21" t="s">
         <v>830</v>
       </c>
-      <c r="E91" s="18" t="s">
-        <v>575</v>
+      <c r="E91" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="G91" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H91" s="4"/>
-      <c r="I91" s="18"/>
+      <c r="I91" s="4"/>
       <c r="J91" s="18"/>
       <c r="K91" s="18"/>
       <c r="L91" s="18"/>
@@ -7256,34 +7271,38 @@
         <v>831</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>95</v>
+        <v>570</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="H92" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="I92" s="18"/>
       <c r="J92" s="18"/>
       <c r="K92" s="18"/>
       <c r="L92" s="18"/>
       <c r="M92" s="18"/>
       <c r="N92" s="20"/>
     </row>
-    <row r="93" spans="3:15">
+    <row r="93" spans="3:15" ht="14.25">
       <c r="C93" s="2">
         <v>92</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>779</v>
+        <v>830</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="F93" s="18">
-        <v>3</v>
-      </c>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
+        <v>831</v>
+      </c>
+      <c r="F93" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H93" s="23"/>
       <c r="I93" s="18"/>
       <c r="J93" s="18"/>
       <c r="K93" s="18"/>
@@ -7291,35 +7310,105 @@
       <c r="M93" s="18"/>
       <c r="N93" s="20"/>
     </row>
+    <row r="94" spans="3:15">
+      <c r="C94" s="2">
+        <v>93</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>830</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H94" s="4"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="20"/>
+    </row>
+    <row r="95" spans="3:15">
+      <c r="C95" s="2">
+        <v>94</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>830</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G95" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="20"/>
+    </row>
+    <row r="96" spans="3:15">
+      <c r="C96" s="2">
+        <v>95</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>779</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="F96" s="18">
+        <v>3</v>
+      </c>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="20"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N93">
-    <cfRule type="cellIs" dxfId="5" priority="31" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N96">
+    <cfRule type="cellIs" dxfId="7" priority="31" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="32" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N82">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N85">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D93 D87 D3 D52:D58 D60:D66 D33:D43 D7:D31 D45:D50 D82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D96 D90 D3 D52:D58 D60:D66 D33:D43 D7:D31 D45:D50 D85">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F49 F51:F63 F65:F93">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F49 F51:F63 F65:F96">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G90:G93 G2:G88">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G93:G96 G2:G91">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E93">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E96">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.20.30.40_ConfigureShutDownAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.40_ConfigureShutDownAction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-900" yWindow="30" windowWidth="8625" windowHeight="7830"/>
@@ -1200,7 +1200,7 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -3667,10 +3667,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SearchStart_0$</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Select</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3854,6 +3850,9 @@
   <si>
     <t>FormConfirmActionSetDelete</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_0$</t>
   </si>
 </sst>
 </file>
@@ -4124,40 +4123,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -4612,7 +4583,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4898,8 +4869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="F61" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4915,10 +4886,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" customHeight="1">
       <c r="A1" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>841</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>842</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>746</v>
@@ -4960,10 +4931,10 @@
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>843</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>844</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -4985,10 +4956,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>845</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>846</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -5020,16 +4991,16 @@
     </row>
     <row r="4" spans="1:15" ht="15">
       <c r="A4" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>847</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>848</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
@@ -5045,7 +5016,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="9" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B5" s="14">
         <v>41718</v>
@@ -5054,23 +5025,23 @@
         <v>4</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>569</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>838</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="J5" s="18" t="s">
         <v>839</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>840</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
@@ -5079,10 +5050,10 @@
     </row>
     <row r="6" spans="1:15" ht="15">
       <c r="A6" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>849</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>850</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
@@ -5135,7 +5106,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="9" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="2">
@@ -5164,7 +5135,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="9" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="2">
@@ -5274,7 +5245,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -5423,7 +5394,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="2"/>
@@ -5632,7 +5603,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -5822,7 +5793,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="18"/>
@@ -5900,7 +5871,7 @@
         <v>56</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
@@ -5977,7 +5948,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>810</v>
+        <v>859</v>
       </c>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
@@ -5999,10 +5970,10 @@
         <v>387</v>
       </c>
       <c r="G39" s="18" t="s">
+        <v>810</v>
+      </c>
+      <c r="H39" s="18" t="s">
         <v>811</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>812</v>
       </c>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -6022,13 +5993,13 @@
         <v>385</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G40" s="18" t="s">
         <v>56</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
@@ -6114,7 +6085,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
@@ -6165,7 +6136,7 @@
         <v>27</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -6186,7 +6157,7 @@
         <v>19</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G47" s="18" t="s">
         <v>2</v>
@@ -6210,13 +6181,13 @@
         <v>19</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>3</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
@@ -6276,7 +6247,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="18"/>
@@ -6324,7 +6295,7 @@
         <v>19</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G53" s="18" t="s">
         <v>2</v>
@@ -6354,7 +6325,7 @@
         <v>56</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>810</v>
+        <v>859</v>
       </c>
       <c r="I54" s="18"/>
       <c r="J54" s="18"/>
@@ -6464,7 +6435,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="18"/>
@@ -6512,7 +6483,7 @@
         <v>19</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G61" s="18" t="s">
         <v>2</v>
@@ -6536,10 +6507,10 @@
         <v>19</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H62" s="18">
         <v>1</v>
@@ -6607,16 +6578,16 @@
         <v>785</v>
       </c>
       <c r="E65" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="F65" s="18" t="s">
         <v>824</v>
       </c>
-      <c r="F65" s="18" t="s">
+      <c r="G65" s="18" t="s">
         <v>825</v>
       </c>
-      <c r="G65" s="18" t="s">
-        <v>826</v>
-      </c>
       <c r="H65" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="18"/>
@@ -6633,7 +6604,7 @@
         <v>785</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F66" s="18" t="s">
         <v>95</v>
@@ -6654,7 +6625,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
@@ -6734,7 +6705,7 @@
         <v>56</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I70" s="18"/>
       <c r="J70" s="18"/>
@@ -6786,7 +6757,7 @@
         <v>56</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="18"/>
@@ -6863,7 +6834,7 @@
         <v>56</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="18"/>
@@ -7065,7 +7036,7 @@
         <v>56</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="18"/>
@@ -7108,7 +7079,7 @@
         <v>785</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F85" s="18" t="s">
         <v>194</v>
@@ -7129,10 +7100,10 @@
         <v>85</v>
       </c>
       <c r="D86" s="21" t="s">
+        <v>856</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>857</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>858</v>
       </c>
       <c r="F86" s="18">
         <v>5</v>
@@ -7177,7 +7148,7 @@
         <v>87</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="18"/>
@@ -7195,10 +7166,10 @@
         <v>88</v>
       </c>
       <c r="D89" s="21" t="s">
+        <v>827</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>828</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>829</v>
       </c>
       <c r="F89" s="18">
         <v>5</v>
@@ -7241,7 +7212,7 @@
         <v>90</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>19</v>
@@ -7265,10 +7236,10 @@
         <v>91</v>
       </c>
       <c r="D92" s="21" t="s">
+        <v>829</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>830</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>831</v>
       </c>
       <c r="F92" s="18" t="s">
         <v>570</v>
@@ -7277,7 +7248,7 @@
         <v>3</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I92" s="18"/>
       <c r="J92" s="18"/>
@@ -7291,10 +7262,10 @@
         <v>92</v>
       </c>
       <c r="D93" s="21" t="s">
+        <v>829</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>830</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>831</v>
       </c>
       <c r="F93" s="18" t="s">
         <v>178</v>
@@ -7315,7 +7286,7 @@
         <v>93</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E94" s="18" t="s">
         <v>575</v>
@@ -7339,10 +7310,10 @@
         <v>94</v>
       </c>
       <c r="D95" s="21" t="s">
+        <v>829</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>830</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>831</v>
       </c>
       <c r="F95" s="18" t="s">
         <v>95</v>
@@ -7366,7 +7337,7 @@
         <v>779</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F96" s="18">
         <v>3</v>
@@ -7383,18 +7354,18 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="N2:N96">
-    <cfRule type="cellIs" dxfId="7" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="31" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="32" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N85">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
